--- a/PROCESSED AQI DATA/ADILABAD_AQI.xlsx
+++ b/PROCESSED AQI DATA/ADILABAD_AQI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM VIII\MINI PROJECT\PRE PROCESSOR\PRE PROCESSED AQI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM VIII\MINI PROJECT\AQI CODES\PROCESSED AQI DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD08E48-3E8D-44EB-8596-389EEA56CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF31F03-C477-4A52-8AD0-78B31FC59963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
-  <si>
-    <t>2016</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>jan</t>
   </si>
@@ -60,15 +57,6 @@
   <si>
     <t>december</t>
   </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
 </sst>
 </file>
 
@@ -103,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,931 +435,934 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3" s="1">
+        <v>42401</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>42430</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>42461</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6" s="1">
+        <v>42491</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>42522</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>42552</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
+      <c r="A9" s="1">
+        <v>42583</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
+      <c r="A10" s="1">
+        <v>42614</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11" s="1">
+        <v>42644</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
+      <c r="A12" s="1">
+        <v>42675</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="A13" s="1">
+        <v>42705</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>42736</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1">
+        <v>42767</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
+      <c r="A16" s="1">
+        <v>42795</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
+      <c r="A17" s="2">
+        <v>42826</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="A18" s="1">
+        <v>42856</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="A19" s="1">
+        <v>42887</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
+      <c r="A20" s="1">
+        <v>42917</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
+      <c r="A21" s="1">
+        <v>42948</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
+      <c r="A22" s="1">
+        <v>42979</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
+      <c r="A23" s="1">
+        <v>43009</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
+      <c r="A24" s="1">
+        <v>43040</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>13</v>
+      <c r="A25" s="1">
+        <v>43070</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2018</v>
+      <c r="A26" s="1">
+        <v>43101</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2018</v>
+      <c r="A27" s="1">
+        <v>43132</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2018</v>
+      <c r="A28" s="1">
+        <v>43160</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2018</v>
+      <c r="A29" s="1">
+        <v>43191</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2018</v>
+      <c r="A30" s="1">
+        <v>43221</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2018</v>
+      <c r="A31" s="1">
+        <v>43252</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2018</v>
+      <c r="A32" s="1">
+        <v>43282</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2018</v>
+      <c r="A33" s="1">
+        <v>43313</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2018</v>
+      <c r="A34" s="1">
+        <v>43344</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2018</v>
+      <c r="A35" s="1">
+        <v>43374</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2018</v>
+      <c r="A36" s="1">
+        <v>43405</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2018</v>
+      <c r="A37" s="1">
+        <v>43435</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2019</v>
+      <c r="A38" s="1">
+        <v>43466</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2019</v>
+      <c r="A39" s="1">
+        <v>43497</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2019</v>
+      <c r="A40" s="1">
+        <v>43525</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2019</v>
+      <c r="A41" s="1">
+        <v>43556</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2019</v>
+      <c r="A42" s="1">
+        <v>43586</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2019</v>
+      <c r="A43" s="1">
+        <v>43617</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2019</v>
+      <c r="A44" s="1">
+        <v>43647</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2019</v>
+      <c r="A45" s="1">
+        <v>43678</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2019</v>
+      <c r="A46" s="1">
+        <v>43709</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2019</v>
+      <c r="A47" s="1">
+        <v>43739</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2019</v>
+      <c r="A48" s="1">
+        <v>43770</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2019</v>
+      <c r="A49" s="1">
+        <v>43800</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2020</v>
+      <c r="A50" s="1">
+        <v>43831</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2020</v>
+      <c r="A51" s="1">
+        <v>43862</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2020</v>
+      <c r="A52" s="1">
+        <v>43891</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2020</v>
+      <c r="A53" s="1">
+        <v>43922</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2020</v>
+      <c r="A54" s="1">
+        <v>43952</v>
       </c>
       <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B55" t="s">
         <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2020</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
       </c>
       <c r="C55">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>2020</v>
+      <c r="A56" s="1">
+        <v>44013</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>2020</v>
+      <c r="A57" s="1">
+        <v>44044</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2020</v>
+      <c r="A58" s="1">
+        <v>44075</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>2020</v>
+      <c r="A59" s="1">
+        <v>44105</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2020</v>
+      <c r="A60" s="1">
+        <v>44136</v>
       </c>
       <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2020</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
+      <c r="C61">
+        <v>71.8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>15</v>
+      <c r="A62" s="1">
+        <v>44197</v>
       </c>
       <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B63" t="s">
         <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>15</v>
+      <c r="A64" s="1">
+        <v>44256</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>15</v>
+      <c r="A65" s="1">
+        <v>44287</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>15</v>
+      <c r="A66" s="1">
+        <v>44317</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>15</v>
+      <c r="A67" s="1">
+        <v>44348</v>
       </c>
       <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B73" t="s">
         <v>11</v>
       </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
+      <c r="C73">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>2022</v>
+      <c r="A74" s="1">
+        <v>44562</v>
       </c>
       <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2022</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B76" t="s">
         <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>2022</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
       </c>
       <c r="C76">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>2022</v>
+      <c r="A77" s="1">
+        <v>44652</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>2022</v>
+      <c r="A78" s="1">
+        <v>44682</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>2022</v>
+      <c r="A79" s="1">
+        <v>44713</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>2022</v>
+      <c r="A80" s="1">
+        <v>44743</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>2022</v>
+      <c r="A81" s="1">
+        <v>44774</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>2022</v>
+      <c r="A82" s="1">
+        <v>44805</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>2022</v>
+      <c r="A83" s="1">
+        <v>44835</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>2022</v>
+      <c r="A84" s="1">
+        <v>44866</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>2022</v>
+      <c r="A85" s="1">
+        <v>44896</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85">
         <v>62</v>
